--- a/HONDURAS/Delitos/Observatorio UNAH/UNAH.xlsx
+++ b/HONDURAS/Delitos/Observatorio UNAH/UNAH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\Observatorio UNAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465CD8D-A348-4F14-B8D2-2846605C387F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F3C2E-98B9-4CA6-90FC-A46418564F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="30" windowWidth="13650" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{18233244-913E-489D-9A24-1D1BD1406925}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{18233244-913E-489D-9A24-1D1BD1406925}"/>
   </bookViews>
   <sheets>
     <sheet name="Muerte por violencia intenciosa" sheetId="1" r:id="rId1"/>
@@ -1643,7 +1643,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1839,16 +1839,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Énfasis2" xfId="1" builtinId="35"/>
@@ -2529,7 +2526,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DC5FB4-F88E-44B4-82F4-EFD3042AA69C}" name="causa_muerte" displayName="causa_muerte" ref="A3:D153">
   <autoFilter ref="A3:D153" xr:uid="{42ED373C-6A19-4C29-8440-3019C6C66592}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D153">
-    <sortCondition ref="C3:C153"/>
+    <sortCondition ref="B3:B153"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{49E4164F-31A8-4DC8-96A4-1EB4EA68B7C2}" name="Causa" dataDxfId="40"/>
@@ -6432,8 +6429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B9F28-6F00-4CDB-B59D-46E9231B5C5A}">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6464,1031 +6461,1129 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="2">
-        <v>2008</v>
+        <v>272</v>
+      </c>
+      <c r="B4" s="40">
+        <v>1</v>
+      </c>
+      <c r="C4" s="90">
+        <v>2018</v>
       </c>
       <c r="D4" s="74">
-        <v>0</v>
+        <v>1.6315875346712352E-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="78"/>
+        <v>26</v>
+      </c>
+      <c r="B5" s="78">
+        <v>2</v>
+      </c>
       <c r="C5" s="2">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D5" s="74">
-        <v>0</v>
+        <v>3.2631750693424703E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="78"/>
+      <c r="A6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="78">
+        <v>4</v>
+      </c>
       <c r="C6" s="2">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D6" s="74">
-        <v>0</v>
+        <v>6.5263501386849407E-4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="78">
+        <v>4</v>
+      </c>
       <c r="C7" s="2">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D7" s="74">
-        <v>0</v>
+        <v>6.5263501386849407E-4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" s="78"/>
+        <v>272</v>
+      </c>
+      <c r="B8" s="78">
+        <v>4</v>
+      </c>
       <c r="C8" s="2">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="D8" s="74">
-        <v>0</v>
+        <v>6.5263501386849407E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="40">
+        <v>5</v>
+      </c>
+      <c r="C9" s="37">
+        <v>2015</v>
+      </c>
+      <c r="D9" s="74">
+        <v>8.1579376733561756E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="40">
+        <v>6</v>
+      </c>
+      <c r="C10" s="37">
+        <v>2016</v>
+      </c>
+      <c r="D10" s="74">
+        <v>9.7895252080274116E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="2">
-        <v>2008</v>
-      </c>
-      <c r="D9" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="2">
-        <v>2008</v>
-      </c>
-      <c r="D10" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="78">
+        <v>8</v>
+      </c>
       <c r="C11" s="2">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="D11" s="74">
-        <v>0</v>
+        <v>1.3052700277369881E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="78">
-        <v>312</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2008</v>
+      <c r="A12" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="40">
+        <v>8</v>
+      </c>
+      <c r="C12" s="90">
+        <v>2018</v>
       </c>
       <c r="D12" s="74">
-        <v>5.0905531081742533E-2</v>
+        <v>1.3052700277369881E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="2">
-        <v>2008</v>
+        <v>272</v>
+      </c>
+      <c r="B13" s="40">
+        <v>10</v>
+      </c>
+      <c r="C13" s="37">
+        <v>2016</v>
       </c>
       <c r="D13" s="74">
-        <v>0</v>
+        <v>1.6315875346712351E-3</v>
       </c>
       <c r="F13" s="83"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B14" s="78"/>
+        <v>269</v>
+      </c>
+      <c r="B14" s="78">
+        <v>11</v>
+      </c>
       <c r="C14" s="2">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D14" s="74">
-        <v>0</v>
+        <v>1.7947462881383587E-3</v>
       </c>
       <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>277</v>
+      <c r="A15" s="95" t="s">
+        <v>270</v>
       </c>
       <c r="B15" s="78">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D15" s="74">
-        <v>1.6642192853646598E-2</v>
+        <v>2.1210637950726057E-3</v>
       </c>
       <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>278</v>
+      <c r="A16" s="37" t="s">
+        <v>269</v>
       </c>
       <c r="B16" s="78">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D16" s="74">
-        <v>0.1582639908631098</v>
+        <v>2.2842225485397291E-3</v>
       </c>
       <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="78">
-        <v>75</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2008</v>
+      <c r="A17" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="40">
+        <v>14</v>
+      </c>
+      <c r="C17" s="90">
+        <v>2018</v>
       </c>
       <c r="D17" s="74">
-        <v>1.2236906510034264E-2</v>
+        <v>2.2842225485397291E-3</v>
       </c>
       <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="78"/>
+      <c r="A18" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="78">
+        <v>15</v>
+      </c>
       <c r="C18" s="2">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D18" s="74">
-        <v>0</v>
+        <v>2.4473813020068525E-3</v>
       </c>
       <c r="F18" s="83"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
-        <v>275</v>
-      </c>
-      <c r="B19" s="78"/>
+      <c r="A19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="78">
+        <v>15</v>
+      </c>
       <c r="C19" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D19" s="74">
-        <v>0</v>
+        <v>2.4473813020068525E-3</v>
       </c>
       <c r="F19" s="83"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>271</v>
+      <c r="A20" s="96" t="s">
+        <v>270</v>
       </c>
       <c r="B20" s="78">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>2010</v>
       </c>
       <c r="D20" s="74">
-        <v>5.5473976178821993E-3</v>
+        <v>2.7736988089410997E-3</v>
       </c>
       <c r="F20" s="83"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="78">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2010</v>
+      <c r="A21" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="40">
+        <v>17</v>
+      </c>
+      <c r="C21" s="37">
+        <v>2015</v>
       </c>
       <c r="D21" s="74">
-        <v>3.2631750693424703E-4</v>
+        <v>2.7736988089410997E-3</v>
       </c>
       <c r="F21" s="84"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
-        <v>272</v>
-      </c>
-      <c r="B22" s="78">
-        <v>35</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2010</v>
+      <c r="A22" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="40">
+        <v>18</v>
+      </c>
+      <c r="C22" s="37">
+        <v>2016</v>
       </c>
       <c r="D22" s="74">
-        <v>5.7105563713493231E-3</v>
+        <v>2.936857562408223E-3</v>
       </c>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" s="78"/>
+      <c r="A23" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="78">
+        <v>22</v>
+      </c>
       <c r="C23" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D23" s="74">
-        <v>0</v>
+        <v>3.5894925762767174E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
-        <v>269</v>
-      </c>
-      <c r="B24" s="78">
-        <v>14</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2010</v>
+      <c r="A24" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="40">
+        <v>22</v>
+      </c>
+      <c r="C24" s="37">
+        <v>2015</v>
       </c>
       <c r="D24" s="74">
-        <v>2.2842225485397291E-3</v>
+        <v>3.5894925762767174E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="s">
-        <v>270</v>
+      <c r="A25" s="94" t="s">
+        <v>271</v>
       </c>
       <c r="B25" s="78">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
         <v>2010</v>
       </c>
       <c r="D25" s="74">
-        <v>2.7736988089410997E-3</v>
+        <v>5.5473976178821993E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" s="78"/>
+      <c r="A26" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" s="78">
+        <v>35</v>
+      </c>
       <c r="C26" s="2">
         <v>2010</v>
       </c>
       <c r="D26" s="74">
-        <v>0</v>
+        <v>5.7105563713493231E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="78">
-        <v>71</v>
+      <c r="A27" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" s="40">
+        <v>39</v>
       </c>
       <c r="C27" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D27" s="74">
-        <v>1.158427149616577E-2</v>
+        <v>6.3631913852178167E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B28" s="78">
-        <v>194</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2010</v>
+      <c r="A28" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="40">
+        <v>39</v>
+      </c>
+      <c r="C28" s="90">
+        <v>2018</v>
       </c>
       <c r="D28" s="74">
-        <v>3.1652798172621961E-2</v>
+        <v>6.3631913852178167E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="78">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D29" s="74">
+        <v>6.5263501386849405E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="78">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D30" s="74">
+        <v>7.6684614129548054E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="78">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D31" s="74">
+        <v>7.9947789198890513E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="40">
+        <v>49</v>
+      </c>
+      <c r="C32" s="37">
+        <v>2016</v>
+      </c>
+      <c r="D32" s="74">
+        <v>7.9947789198890513E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" s="40">
+        <v>50</v>
+      </c>
+      <c r="C33" s="37">
+        <v>2015</v>
+      </c>
+      <c r="D33" s="74">
+        <v>8.1579376733561752E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B29" s="78">
-        <v>71</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D29" s="74">
-        <v>1.158427149616577E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D30" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D31" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="97" t="s">
-        <v>279</v>
-      </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D32" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="98" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D33" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="B34" s="78"/>
+      <c r="B34" s="78">
+        <v>52</v>
+      </c>
       <c r="C34" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D34" s="74">
-        <v>0</v>
+        <v>8.4842551802904228E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B35" s="78">
-        <v>40</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2011</v>
+      <c r="A35" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" s="87">
+        <v>55</v>
+      </c>
+      <c r="C35" s="90">
+        <v>2015</v>
       </c>
       <c r="D35" s="74">
-        <v>6.5263501386849405E-3</v>
+        <v>8.9737314406917925E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="78"/>
+      <c r="A36" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" s="78">
+        <v>55</v>
+      </c>
       <c r="C36" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D36" s="74">
-        <v>0</v>
+        <v>8.9737314406917925E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B37" s="78">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2011</v>
+      <c r="A37" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="87">
+        <v>60</v>
+      </c>
+      <c r="C37" s="90">
+        <v>2018</v>
       </c>
       <c r="D37" s="74">
-        <v>6.5263501386849407E-4</v>
+        <v>9.7895252080274098E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B38" s="78"/>
+        <v>23</v>
+      </c>
+      <c r="B38" s="78">
+        <v>69</v>
+      </c>
       <c r="C38" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D38" s="74">
-        <v>0</v>
+        <v>1.1257953989231522E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B39" s="78">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2011</v>
+      <c r="A39" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" s="48">
+        <v>69</v>
+      </c>
+      <c r="C39" s="92">
+        <v>2016</v>
       </c>
       <c r="D39" s="74">
-        <v>1.7947462881383587E-3</v>
+        <v>1.1257953989231522E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="95" t="s">
-        <v>270</v>
+      <c r="A40" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B40" s="78">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D40" s="74">
-        <v>2.1210637950726057E-3</v>
+        <v>1.158427149616577E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="B41" s="78"/>
+      <c r="A41" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="78">
+        <v>71</v>
+      </c>
       <c r="C41" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D41" s="74">
-        <v>0</v>
+        <v>1.158427149616577E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="B42" s="78">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D42" s="74">
-        <v>1.5336922825909611E-2</v>
+        <v>1.2236906510034264E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B43" s="78">
-        <v>267</v>
-      </c>
-      <c r="C43" s="2">
-        <v>2011</v>
+      <c r="A43" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="40">
+        <v>75</v>
+      </c>
+      <c r="C43" s="90">
+        <v>2018</v>
       </c>
       <c r="D43" s="74">
-        <v>4.3563387175721981E-2</v>
+        <v>1.2236906510034264E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="100" t="s">
+      <c r="A44" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44" s="40">
+        <v>81</v>
+      </c>
+      <c r="C44" s="90">
+        <v>2018</v>
+      </c>
+      <c r="D44" s="74">
+        <v>1.3215859030837005E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="78">
+      <c r="B45" s="78">
         <v>83</v>
       </c>
-      <c r="C44" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D44" s="74">
-        <v>1.3542176537771251E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="B45" s="78"/>
       <c r="C45" s="2">
         <v>2011</v>
       </c>
       <c r="D45" s="74">
-        <v>0</v>
+        <v>1.3542176537771251E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="B46" s="78"/>
-      <c r="C46" s="2">
-        <v>2011</v>
+      <c r="A46" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" s="40">
+        <v>88</v>
+      </c>
+      <c r="C46" s="37">
+        <v>2016</v>
       </c>
       <c r="D46" s="74">
-        <v>0</v>
+        <v>1.435797030510687E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="97" t="s">
-        <v>279</v>
-      </c>
-      <c r="B47" s="78"/>
-      <c r="C47" s="2">
-        <v>2011</v>
+      <c r="A47" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="40">
+        <v>93</v>
+      </c>
+      <c r="C47" s="37">
+        <v>2016</v>
       </c>
       <c r="D47" s="74">
-        <v>0</v>
+        <v>1.5173764072442487E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="98" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" s="78"/>
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="78">
+        <v>94</v>
+      </c>
       <c r="C48" s="2">
         <v>2011</v>
       </c>
       <c r="D48" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="2">
-        <v>2012</v>
+        <v>1.5336922825909611E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="86">
+        <v>94</v>
+      </c>
+      <c r="C49" s="91">
+        <v>2013</v>
       </c>
       <c r="D49" s="74">
-        <v>0</v>
+        <v>1.5336922825909611E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B50" s="78">
-        <v>49</v>
-      </c>
-      <c r="C50" s="2">
-        <v>2012</v>
+      <c r="A50" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="40">
+        <v>100</v>
+      </c>
+      <c r="C50" s="37">
+        <v>2015</v>
       </c>
       <c r="D50" s="74">
-        <v>7.9947789198890513E-3</v>
+        <v>1.631587534671235E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="78"/>
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="78">
+        <v>101</v>
+      </c>
       <c r="C51" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="D51" s="74">
-        <v>0</v>
+        <v>1.6479034100179476E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" s="78">
+        <v>102</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D52" s="74">
+        <v>1.6642192853646598E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="87">
+        <v>105</v>
+      </c>
+      <c r="C53" s="90">
+        <v>2018</v>
+      </c>
+      <c r="D53" s="74">
+        <v>1.7131669114047968E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="78">
+        <v>106</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D54" s="74">
+        <v>1.7294827867515093E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="87">
+        <v>111</v>
+      </c>
+      <c r="C55" s="90">
+        <v>2015</v>
+      </c>
+      <c r="D55" s="74">
+        <v>1.8110621634850711E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="40">
+        <v>118</v>
+      </c>
+      <c r="C56" s="37">
+        <v>2015</v>
+      </c>
+      <c r="D56" s="74">
+        <v>1.9252732909120576E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" s="86">
+        <v>134</v>
+      </c>
+      <c r="C57" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D57" s="74">
+        <v>2.186327296459455E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="48">
+        <v>135</v>
+      </c>
+      <c r="C58" s="92">
+        <v>2016</v>
+      </c>
+      <c r="D58" s="74">
+        <v>2.2026431718061675E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="78">
+        <v>136</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D59" s="74">
+        <v>2.2189590471528797E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B60" s="88">
+        <v>151</v>
+      </c>
+      <c r="C60" s="89">
+        <v>2012</v>
+      </c>
+      <c r="D60" s="74">
+        <v>2.4636971773535649E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" s="78">
+        <v>167</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D61" s="74">
+        <v>2.7247511829009627E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62" s="78">
+        <v>190</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D62" s="74">
+        <v>3.1000163158753466E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" s="78">
+        <v>194</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D63" s="74">
+        <v>3.1652798172621961E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" s="78">
+        <v>235</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D64" s="74">
+        <v>3.8342307064774026E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B65" s="78">
+        <v>267</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D65" s="74">
+        <v>4.3563387175721981E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="40">
+        <v>290</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D66" s="74">
+        <v>4.731603850546582E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="78">
+        <v>312</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D67" s="74">
+        <v>5.0905531081742533E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" s="86">
+        <v>408</v>
+      </c>
+      <c r="C68" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D68" s="74">
+        <v>6.6568771414586392E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="78">
+        <v>970</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D69" s="74">
+        <v>0.1582639908631098</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="78">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D70" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="78">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D71" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="78">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D72" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B52" s="78">
-        <v>4</v>
-      </c>
-      <c r="C52" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D52" s="74">
-        <v>6.5263501386849407E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="95" t="s">
+      <c r="B73" s="78">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D73" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B53" s="78">
-        <v>190</v>
-      </c>
-      <c r="C53" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D53" s="74">
-        <v>3.1000163158753466E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="78">
-        <v>15</v>
-      </c>
-      <c r="C54" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D54" s="74">
-        <v>2.4473813020068525E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="96" t="s">
+      <c r="B74" s="78">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D74" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" s="78">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D75" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="78">
-        <v>22</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D55" s="74">
-        <v>3.5894925762767174E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="96" t="s">
+      <c r="B76" s="78">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D76" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="B56" s="40">
-        <v>39</v>
-      </c>
-      <c r="C56" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D56" s="74">
-        <v>6.3631913852178167E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="78">
-        <v>136</v>
-      </c>
-      <c r="C57" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D57" s="74">
-        <v>2.2189590471528797E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="97" t="s">
+      <c r="B77" s="78">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D77" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="B58" s="78"/>
-      <c r="C58" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D58" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="100" t="s">
+      <c r="B78" s="78">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D78" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B59" s="88">
-        <v>151</v>
-      </c>
-      <c r="C59" s="89">
-        <v>2012</v>
-      </c>
-      <c r="D59" s="74">
-        <v>2.4636971773535649E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="B60" s="78"/>
-      <c r="C60" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D60" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="B61" s="78"/>
-      <c r="C61" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D61" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="97" t="s">
-        <v>279</v>
-      </c>
-      <c r="B62" s="78"/>
-      <c r="C62" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D62" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="98" t="s">
+      <c r="B79" s="78">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D79" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="78"/>
-      <c r="C63" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D63" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="93" t="s">
+      <c r="B80" s="78">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D80" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="B64" s="86">
-        <v>408</v>
-      </c>
-      <c r="C64" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D64" s="74">
-        <v>6.6568771414586392E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="91" t="s">
-        <v>271</v>
-      </c>
-      <c r="B65" s="78"/>
-      <c r="C65" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D65" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="78"/>
-      <c r="C66" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D66" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="91" t="s">
-        <v>272</v>
-      </c>
-      <c r="B67" s="78"/>
-      <c r="C67" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D67" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B81" s="78">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D81" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="B68" s="78"/>
-      <c r="C68" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D68" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="B69" s="78"/>
-      <c r="C69" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D69" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B70" s="78"/>
-      <c r="C70" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D70" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="98" t="s">
+      <c r="B82" s="78">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D82" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D71" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="86">
-        <v>94</v>
-      </c>
-      <c r="C72" s="91">
-        <v>2013</v>
-      </c>
-      <c r="D72" s="74">
-        <v>1.5336922825909611E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="B73" s="78"/>
-      <c r="C73" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D73" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B74" s="86">
-        <v>134</v>
-      </c>
-      <c r="C74" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D74" s="74">
-        <v>2.186327296459455E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="B75" s="78"/>
-      <c r="C75" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D75" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="B76" s="78"/>
-      <c r="C76" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D76" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="102" t="s">
-        <v>279</v>
-      </c>
-      <c r="B77" s="78"/>
-      <c r="C77" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D77" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="99" t="s">
-        <v>247</v>
-      </c>
-      <c r="B78" s="78"/>
-      <c r="C78" s="89">
-        <v>2013</v>
-      </c>
-      <c r="D78" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="93" t="s">
-        <v>275</v>
-      </c>
-      <c r="B79" s="40">
-        <v>290</v>
-      </c>
-      <c r="C79" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D79" s="74">
-        <v>4.731603850546582E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="91" t="s">
-        <v>271</v>
-      </c>
-      <c r="B80" s="78"/>
-      <c r="C80" s="89">
-        <v>2014</v>
-      </c>
-      <c r="D80" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="78"/>
-      <c r="C81" s="89">
-        <v>2014</v>
-      </c>
-      <c r="D81" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="91" t="s">
-        <v>272</v>
-      </c>
-      <c r="B82" s="78"/>
-      <c r="C82" s="89">
-        <v>2014</v>
-      </c>
-      <c r="D82" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B83" s="78"/>
-      <c r="C83" s="89">
-        <v>2014</v>
+      <c r="B83" s="78">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2010</v>
       </c>
       <c r="D83" s="74">
         <v>0</v>
@@ -7496,99 +7591,111 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="B84" s="78"/>
-      <c r="C84" s="89">
-        <v>2014</v>
+        <v>277</v>
+      </c>
+      <c r="B84" s="78">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2010</v>
       </c>
       <c r="D84" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B85" s="78"/>
-      <c r="C85" s="89">
-        <v>2014</v>
+      <c r="A85" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B85" s="78">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2010</v>
       </c>
       <c r="D85" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="98" t="s">
+      <c r="A86" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="78">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D86" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" s="78">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D87" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="B88" s="78">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D88" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="78">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D89" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" s="78">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D90" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="B86" s="78"/>
-      <c r="C86" s="89">
-        <v>2014</v>
-      </c>
-      <c r="D86" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="78">
-        <v>69</v>
-      </c>
-      <c r="C87" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D87" s="74">
-        <v>1.1257953989231522E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="B88" s="78"/>
-      <c r="C88" s="89">
-        <v>2014</v>
-      </c>
-      <c r="D88" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B89" s="78">
-        <v>167</v>
-      </c>
-      <c r="C89" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D89" s="74">
-        <v>2.7247511829009627E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="B90" s="78"/>
-      <c r="C90" s="89">
-        <v>2014</v>
-      </c>
-      <c r="D90" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="B91" s="78"/>
-      <c r="C91" s="89">
-        <v>2014</v>
+      <c r="B91" s="78">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2011</v>
       </c>
       <c r="D91" s="74">
         <v>0</v>
@@ -7596,195 +7703,209 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B92" s="78">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D92" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" s="78">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D93" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="97" t="s">
         <v>279</v>
       </c>
-      <c r="B92" s="78"/>
-      <c r="C92" s="89">
-        <v>2014</v>
-      </c>
-      <c r="D92" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="98" t="s">
+      <c r="B94" s="78">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D94" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="B93" s="78"/>
-      <c r="C93" s="89">
-        <v>2014</v>
-      </c>
-      <c r="D93" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="B94" s="78"/>
-      <c r="C94" s="37">
-        <v>2015</v>
-      </c>
-      <c r="D94" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B95" s="40">
-        <v>50</v>
-      </c>
-      <c r="C95" s="37">
-        <v>2015</v>
+      <c r="B95" s="78">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2011</v>
       </c>
       <c r="D95" s="74">
-        <v>8.1579376733561752E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="78">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D96" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B96" s="78"/>
-      <c r="C96" s="37">
-        <v>2015</v>
-      </c>
-      <c r="D96" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="B97" s="78">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D97" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="B98" s="78">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D98" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B99" s="78">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D99" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" s="78">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D100" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="B101" s="78">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D101" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="B102" s="78">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D102" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="91" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" s="78">
+        <v>0</v>
+      </c>
+      <c r="C103" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D103" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="78">
+        <v>0</v>
+      </c>
+      <c r="C104" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D104" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="B97" s="40">
-        <v>5</v>
-      </c>
-      <c r="C97" s="37">
-        <v>2015</v>
-      </c>
-      <c r="D97" s="74">
-        <v>8.1579376733561756E-4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="95" t="s">
+      <c r="B105" s="78">
+        <v>0</v>
+      </c>
+      <c r="C105" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D105" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B98" s="40">
-        <v>118</v>
-      </c>
-      <c r="C98" s="37">
-        <v>2015</v>
-      </c>
-      <c r="D98" s="74">
-        <v>1.9252732909120576E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="B99" s="40">
-        <v>17</v>
-      </c>
-      <c r="C99" s="37">
-        <v>2015</v>
-      </c>
-      <c r="D99" s="74">
-        <v>2.7736988089410997E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="B100" s="40">
-        <v>22</v>
-      </c>
-      <c r="C100" s="37">
-        <v>2015</v>
-      </c>
-      <c r="D100" s="74">
-        <v>3.5894925762767174E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="B101" s="40">
-        <v>100</v>
-      </c>
-      <c r="C101" s="37">
-        <v>2015</v>
-      </c>
-      <c r="D101" s="74">
-        <v>1.631587534671235E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="87">
-        <v>111</v>
-      </c>
-      <c r="C102" s="90">
-        <v>2015</v>
-      </c>
-      <c r="D102" s="74">
-        <v>1.8110621634850711E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="B103" s="78"/>
-      <c r="C103" s="37">
-        <v>2015</v>
-      </c>
-      <c r="D103" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B104" s="87">
-        <v>55</v>
-      </c>
-      <c r="C104" s="90">
-        <v>2015</v>
-      </c>
-      <c r="D104" s="74">
-        <v>8.9737314406917925E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="B105" s="78"/>
-      <c r="C105" s="37">
-        <v>2015</v>
-      </c>
-      <c r="D105" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="B106" s="78"/>
-      <c r="C106" s="37">
-        <v>2015</v>
+      <c r="B106" s="78">
+        <v>0</v>
+      </c>
+      <c r="C106" s="89">
+        <v>2013</v>
       </c>
       <c r="D106" s="74">
         <v>0</v>
@@ -7792,11 +7913,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="97" t="s">
-        <v>279</v>
-      </c>
-      <c r="B107" s="78"/>
-      <c r="C107" s="37">
-        <v>2015</v>
+        <v>269</v>
+      </c>
+      <c r="B107" s="78">
+        <v>0</v>
+      </c>
+      <c r="C107" s="89">
+        <v>2013</v>
       </c>
       <c r="D107" s="74">
         <v>0</v>
@@ -7804,181 +7927,195 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B108" s="78">
+        <v>0</v>
+      </c>
+      <c r="C108" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D108" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" s="78">
+        <v>0</v>
+      </c>
+      <c r="C109" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D109" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="B110" s="78">
+        <v>0</v>
+      </c>
+      <c r="C110" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D110" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B111" s="78">
+        <v>0</v>
+      </c>
+      <c r="C111" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D111" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B112" s="78">
+        <v>0</v>
+      </c>
+      <c r="C112" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D112" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="B113" s="78">
+        <v>0</v>
+      </c>
+      <c r="C113" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D113" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="B108" s="78"/>
-      <c r="C108" s="37">
-        <v>2015</v>
-      </c>
-      <c r="D108" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="B109" s="78"/>
-      <c r="C109" s="37">
-        <v>2016</v>
-      </c>
-      <c r="D109" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="37" t="s">
+      <c r="B114" s="78">
+        <v>0</v>
+      </c>
+      <c r="C114" s="89">
+        <v>2013</v>
+      </c>
+      <c r="D114" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="B110" s="40">
-        <v>49</v>
-      </c>
-      <c r="C110" s="37">
-        <v>2016</v>
-      </c>
-      <c r="D110" s="74">
-        <v>7.9947789198890513E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="91" t="s">
+      <c r="B115" s="78">
+        <v>0</v>
+      </c>
+      <c r="C115" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D115" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="78"/>
-      <c r="C111" s="37">
-        <v>2016</v>
-      </c>
-      <c r="D111" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="B116" s="78">
+        <v>0</v>
+      </c>
+      <c r="C116" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D116" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="B112" s="40">
-        <v>10</v>
-      </c>
-      <c r="C112" s="37">
-        <v>2016</v>
-      </c>
-      <c r="D112" s="74">
-        <v>1.6315875346712351E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="95" t="s">
+      <c r="B117" s="78">
+        <v>0</v>
+      </c>
+      <c r="C117" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D117" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B113" s="40">
-        <v>88</v>
-      </c>
-      <c r="C113" s="37">
-        <v>2016</v>
-      </c>
-      <c r="D113" s="74">
-        <v>1.435797030510687E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="B114" s="40">
-        <v>6</v>
-      </c>
-      <c r="C114" s="37">
-        <v>2016</v>
-      </c>
-      <c r="D114" s="74">
-        <v>9.7895252080274116E-4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="96" t="s">
+      <c r="B118" s="78">
+        <v>0</v>
+      </c>
+      <c r="C118" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D118" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="97" t="s">
+        <v>269</v>
+      </c>
+      <c r="B119" s="78">
+        <v>0</v>
+      </c>
+      <c r="C119" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D119" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="B115" s="40">
-        <v>18</v>
-      </c>
-      <c r="C115" s="37">
-        <v>2016</v>
-      </c>
-      <c r="D115" s="74">
-        <v>2.936857562408223E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="98" t="s">
+      <c r="B120" s="78">
+        <v>0</v>
+      </c>
+      <c r="C120" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D120" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="B116" s="78"/>
-      <c r="C116" s="37">
-        <v>2016</v>
-      </c>
-      <c r="D116" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="48">
-        <v>135</v>
-      </c>
-      <c r="C117" s="92">
-        <v>2016</v>
-      </c>
-      <c r="D117" s="74">
-        <v>2.2026431718061675E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="B118" s="78"/>
-      <c r="C118" s="37">
-        <v>2016</v>
-      </c>
-      <c r="D118" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B119" s="48">
-        <v>69</v>
-      </c>
-      <c r="C119" s="92">
-        <v>2016</v>
-      </c>
-      <c r="D119" s="74">
-        <v>1.1257953989231522E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="B120" s="78"/>
-      <c r="C120" s="37">
-        <v>2016</v>
-      </c>
-      <c r="D120" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="B121" s="78"/>
-      <c r="C121" s="37">
-        <v>2016</v>
+      <c r="B121" s="78">
+        <v>0</v>
+      </c>
+      <c r="C121" s="89">
+        <v>2014</v>
       </c>
       <c r="D121" s="74">
         <v>0</v>
@@ -7986,199 +8123,209 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122" s="78">
+        <v>0</v>
+      </c>
+      <c r="C122" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D122" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B123" s="78">
+        <v>0</v>
+      </c>
+      <c r="C123" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D123" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" s="78">
+        <v>0</v>
+      </c>
+      <c r="C124" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D124" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="97" t="s">
         <v>279</v>
       </c>
-      <c r="B122" s="78"/>
-      <c r="C122" s="37">
+      <c r="B125" s="78">
+        <v>0</v>
+      </c>
+      <c r="C125" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D125" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="78">
+        <v>0</v>
+      </c>
+      <c r="C126" s="89">
+        <v>2014</v>
+      </c>
+      <c r="D126" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="B127" s="78">
+        <v>0</v>
+      </c>
+      <c r="C127" s="37">
+        <v>2015</v>
+      </c>
+      <c r="D127" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="78">
+        <v>0</v>
+      </c>
+      <c r="C128" s="37">
+        <v>2015</v>
+      </c>
+      <c r="D128" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="B129" s="78">
+        <v>0</v>
+      </c>
+      <c r="C129" s="37">
+        <v>2015</v>
+      </c>
+      <c r="D129" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B130" s="78">
+        <v>0</v>
+      </c>
+      <c r="C130" s="37">
+        <v>2015</v>
+      </c>
+      <c r="D130" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B131" s="78">
+        <v>0</v>
+      </c>
+      <c r="C131" s="37">
+        <v>2015</v>
+      </c>
+      <c r="D131" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="B132" s="78">
+        <v>0</v>
+      </c>
+      <c r="C132" s="37">
+        <v>2015</v>
+      </c>
+      <c r="D132" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="B133" s="78">
+        <v>0</v>
+      </c>
+      <c r="C133" s="37">
+        <v>2015</v>
+      </c>
+      <c r="D133" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="B134" s="78">
+        <v>0</v>
+      </c>
+      <c r="C134" s="37">
         <v>2016</v>
       </c>
-      <c r="D122" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="96" t="s">
-        <v>247</v>
-      </c>
-      <c r="B123" s="40">
-        <v>93</v>
-      </c>
-      <c r="C123" s="37">
+      <c r="D134" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="78">
+        <v>0</v>
+      </c>
+      <c r="C135" s="37">
         <v>2016</v>
       </c>
-      <c r="D123" s="74">
-        <v>1.5173764072442487E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B124" s="78">
-        <v>235</v>
-      </c>
-      <c r="C124" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D124" s="74">
-        <v>3.8342307064774026E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="B125" s="78">
-        <v>47</v>
-      </c>
-      <c r="C125" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D125" s="74">
-        <v>7.6684614129548054E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B126" s="78"/>
-      <c r="C126" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D126" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B127" s="78">
-        <v>4</v>
-      </c>
-      <c r="C127" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D127" s="74">
-        <v>6.5263501386849407E-4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B128" s="78">
-        <v>106</v>
-      </c>
-      <c r="C128" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D128" s="74">
-        <v>1.7294827867515093E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B129" s="78">
-        <v>8</v>
-      </c>
-      <c r="C129" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D129" s="74">
-        <v>1.3052700277369881E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B130" s="78">
-        <v>15</v>
-      </c>
-      <c r="C130" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D130" s="74">
-        <v>2.4473813020068525E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="D135" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="B131" s="78">
-        <v>55</v>
-      </c>
-      <c r="C131" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D131" s="74">
-        <v>8.9737314406917925E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="78">
-        <v>101</v>
-      </c>
-      <c r="C132" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D132" s="74">
-        <v>1.6479034100179476E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="B133" s="78"/>
-      <c r="C133" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D133" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B134" s="78">
-        <v>52</v>
-      </c>
-      <c r="C134" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D134" s="74">
-        <v>8.4842551802904228E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="B135" s="78"/>
-      <c r="C135" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D135" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="B136" s="78"/>
-      <c r="C136" s="2">
-        <v>2017</v>
+      <c r="B136" s="78">
+        <v>0</v>
+      </c>
+      <c r="C136" s="37">
+        <v>2016</v>
       </c>
       <c r="D136" s="74">
         <v>0</v>
@@ -8186,153 +8333,165 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" s="78">
+        <v>0</v>
+      </c>
+      <c r="C137" s="37">
+        <v>2016</v>
+      </c>
+      <c r="D137" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="78">
+        <v>0</v>
+      </c>
+      <c r="C138" s="37">
+        <v>2016</v>
+      </c>
+      <c r="D138" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" s="78">
+        <v>0</v>
+      </c>
+      <c r="C139" s="37">
+        <v>2016</v>
+      </c>
+      <c r="D139" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="97" t="s">
         <v>279</v>
       </c>
-      <c r="B137" s="78"/>
-      <c r="C137" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D137" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="98" t="s">
-        <v>247</v>
-      </c>
-      <c r="B138" s="78"/>
-      <c r="C138" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D138" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" s="78"/>
-      <c r="C139" s="90">
-        <v>2018</v>
-      </c>
-      <c r="D139" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="B140" s="40">
-        <v>39</v>
-      </c>
-      <c r="C140" s="90">
-        <v>2018</v>
+      <c r="B140" s="78">
+        <v>0</v>
+      </c>
+      <c r="C140" s="37">
+        <v>2016</v>
       </c>
       <c r="D140" s="74">
-        <v>6.3631913852178167E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B141" s="78"/>
-      <c r="C141" s="90">
-        <v>2018</v>
+      <c r="B141" s="78">
+        <v>0</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2017</v>
       </c>
       <c r="D141" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B142" s="40">
-        <v>1</v>
-      </c>
-      <c r="C142" s="90">
-        <v>2018</v>
+      <c r="A142" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="78">
+        <v>0</v>
+      </c>
+      <c r="C142" s="2">
+        <v>2017</v>
       </c>
       <c r="D142" s="74">
-        <v>1.6315875346712352E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="95" t="s">
-        <v>273</v>
-      </c>
-      <c r="B143" s="40">
-        <v>81</v>
-      </c>
-      <c r="C143" s="90">
-        <v>2018</v>
+      <c r="A143" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" s="78">
+        <v>0</v>
+      </c>
+      <c r="C143" s="2">
+        <v>2017</v>
       </c>
       <c r="D143" s="74">
-        <v>1.3215859030837005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="B144" s="40">
-        <v>8</v>
-      </c>
-      <c r="C144" s="90">
-        <v>2018</v>
+      <c r="A144" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="78">
+        <v>0</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2017</v>
       </c>
       <c r="D144" s="74">
-        <v>1.3052700277369881E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="95" t="s">
-        <v>270</v>
-      </c>
-      <c r="B145" s="40">
-        <v>14</v>
-      </c>
-      <c r="C145" s="90">
-        <v>2018</v>
+      <c r="A145" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="B145" s="78">
+        <v>0</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2017</v>
       </c>
       <c r="D145" s="74">
-        <v>2.2842225485397291E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="B146" s="78"/>
-      <c r="C146" s="90">
-        <v>2018</v>
+        <v>247</v>
+      </c>
+      <c r="B146" s="78">
+        <v>0</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2017</v>
       </c>
       <c r="D146" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B147" s="87">
-        <v>105</v>
+      <c r="A147" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="B147" s="78">
+        <v>0</v>
       </c>
       <c r="C147" s="90">
         <v>2018</v>
       </c>
       <c r="D147" s="74">
-        <v>1.7131669114047968E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="B148" s="78"/>
+      <c r="A148" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" s="78">
+        <v>0</v>
+      </c>
       <c r="C148" s="90">
         <v>2018</v>
       </c>
@@ -8341,24 +8500,26 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B149" s="87">
-        <v>60</v>
+      <c r="A149" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="78">
+        <v>0</v>
       </c>
       <c r="C149" s="90">
         <v>2018</v>
       </c>
       <c r="D149" s="74">
-        <v>9.7895252080274098E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="B150" s="78"/>
+        <v>280</v>
+      </c>
+      <c r="B150" s="78">
+        <v>0</v>
+      </c>
       <c r="C150" s="90">
         <v>2018</v>
       </c>
@@ -8368,9 +8529,11 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="B151" s="78"/>
+        <v>277</v>
+      </c>
+      <c r="B151" s="78">
+        <v>0</v>
+      </c>
       <c r="C151" s="90">
         <v>2018</v>
       </c>
@@ -8380,9 +8543,11 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="97" t="s">
-        <v>279</v>
-      </c>
-      <c r="B152" s="78"/>
+        <v>278</v>
+      </c>
+      <c r="B152" s="78">
+        <v>0</v>
+      </c>
       <c r="C152" s="90">
         <v>2018</v>
       </c>
@@ -8391,17 +8556,17 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="96" t="s">
-        <v>247</v>
-      </c>
-      <c r="B153" s="40">
-        <v>75</v>
+      <c r="A153" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="B153" s="78">
+        <v>0</v>
       </c>
       <c r="C153" s="90">
         <v>2018</v>
       </c>
       <c r="D153" s="74">
-        <v>1.2236906510034264E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
